--- a/sample/trqt.xlsx
+++ b/sample/trqt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A0A280-C285-4621-8775-D3FE32934A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3C424-F92F-49CB-8F07-CF115F65EB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC063C77-4A7C-4448-AD26-FE1861CFC5E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>maybe</t>
+  </si>
+  <si>
+    <t>2air</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7D3537-5F48-494D-AD76-49BDB73E52A3}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +481,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -494,6 +506,35 @@
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>915</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/sample/trqt.xlsx
+++ b/sample/trqt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3C424-F92F-49CB-8F07-CF115F65EB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6EB640-2BBC-4FB9-93AB-23567FFAE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC063C77-4A7C-4448-AD26-FE1861CFC5E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -63,34 +63,76 @@
     <t>o4</t>
   </si>
   <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>air?</t>
+    <t>thteeone</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>tox?</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>2air</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>toa</t>
+  </si>
+  <si>
+    <t>tob</t>
+  </si>
+  <si>
+    <t>toc</t>
+  </si>
+  <si>
+    <t>tod</t>
+  </si>
+  <si>
+    <t>toy?</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>toq</t>
+  </si>
+  <si>
+    <t>tor</t>
+  </si>
+  <si>
+    <t>thteex</t>
+  </si>
+  <si>
+    <t>tox</t>
+  </si>
+  <si>
+    <t>toxy?</t>
+  </si>
+  <si>
+    <t>toyy?</t>
+  </si>
+  <si>
+    <t>toax</t>
+  </si>
+  <si>
+    <t>topx</t>
+  </si>
+  <si>
+    <t>tobx</t>
+  </si>
+  <si>
+    <t>tocx</t>
+  </si>
+  <si>
+    <t>todx</t>
+  </si>
+  <si>
+    <t>torx</t>
+  </si>
+  <si>
+    <t>toqx</t>
   </si>
 </sst>
 </file>
@@ -442,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7D3537-5F48-494D-AD76-49BDB73E52A3}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,60 +523,118 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>915</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>915</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
